--- a/tests/data/input/一级测试用例-17001.xlsx
+++ b/tests/data/input/一级测试用例-17001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12964723-552B-4906-BF0E-1C2E3B3B752A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37A215A-96C6-4B20-99B1-2E2FC1A76386}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,10 +52,6 @@
     <t>是否通过</t>
   </si>
   <si>
-    <t>unique_name;
-unique_id_no</t>
-  </si>
-  <si>
     <t>17001</t>
   </si>
   <si>
@@ -993,6 +989,12 @@
   </si>
   <si>
     <t>net_applicant_tel_3m_morethan2=0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_name;
+id_card_no;
+phone</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1404,7 +1406,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F100" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H119"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1455,46 +1459,46 @@
         <v>115</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>116</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="6"/>
       <c r="G3" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I3" s="4"/>
     </row>
@@ -1503,46 +1507,46 @@
         <v>117</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>118</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="6"/>
       <c r="G5" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I5" s="4"/>
     </row>
@@ -1551,46 +1555,46 @@
         <v>119</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>120</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="7"/>
       <c r="G7" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I7" s="4"/>
     </row>
@@ -1599,46 +1603,46 @@
         <v>121</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>122</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="7"/>
       <c r="G9" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I9" s="4"/>
     </row>
@@ -1647,46 +1651,46 @@
         <v>123</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>124</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="7"/>
       <c r="G11" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I11" s="4"/>
     </row>
@@ -1695,46 +1699,46 @@
         <v>125</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>126</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="7"/>
       <c r="G13" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I13" s="4"/>
     </row>
@@ -1743,46 +1747,46 @@
         <v>127</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>128</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="6"/>
       <c r="G15" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I15" s="4"/>
     </row>
@@ -1791,46 +1795,46 @@
         <v>129</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>130</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="6"/>
       <c r="G17" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I17" s="4"/>
     </row>
@@ -1839,46 +1843,46 @@
         <v>131</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>132</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="6"/>
       <c r="G19" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I19" s="4"/>
     </row>
@@ -1887,46 +1891,46 @@
         <v>133</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>134</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="6"/>
       <c r="G21" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I21" s="4"/>
     </row>
@@ -1935,46 +1939,46 @@
         <v>135</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>136</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="6"/>
       <c r="G23" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I23" s="4"/>
     </row>
@@ -1983,46 +1987,46 @@
         <v>137</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>138</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="6"/>
       <c r="G25" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I25" s="4"/>
     </row>
@@ -2031,46 +2035,46 @@
         <v>139</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>140</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="6"/>
       <c r="G27" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I27" s="4"/>
     </row>
@@ -2079,46 +2083,46 @@
         <v>141</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>142</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="6"/>
       <c r="G29" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I29" s="4"/>
     </row>
@@ -2127,46 +2131,46 @@
         <v>143</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>144</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="6"/>
       <c r="G31" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I31" s="4"/>
     </row>
@@ -2175,46 +2179,46 @@
         <v>145</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F32" s="6"/>
       <c r="G32" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>146</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="6"/>
       <c r="G33" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I33" s="4"/>
     </row>
@@ -2223,46 +2227,46 @@
         <v>147</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34" s="6"/>
       <c r="G34" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>148</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="6"/>
       <c r="G35" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I35" s="4"/>
     </row>
@@ -2271,46 +2275,46 @@
         <v>149</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>150</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="6"/>
       <c r="G37" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I37" s="4"/>
     </row>
@@ -2319,46 +2323,46 @@
         <v>151</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F38" s="6"/>
       <c r="G38" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>152</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="6"/>
       <c r="G39" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I39" s="4"/>
     </row>
@@ -2367,46 +2371,46 @@
         <v>153</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F40" s="6"/>
       <c r="G40" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>154</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="6"/>
       <c r="G41" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I41" s="4"/>
     </row>
@@ -2415,46 +2419,46 @@
         <v>155</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>156</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="6"/>
       <c r="G43" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I43" s="4"/>
     </row>
@@ -2463,46 +2467,46 @@
         <v>157</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F44" s="6"/>
       <c r="G44" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>158</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="6"/>
       <c r="G45" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I45" s="4"/>
     </row>
@@ -2511,46 +2515,46 @@
         <v>159</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F46" s="6"/>
       <c r="G46" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>160</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="6"/>
       <c r="G47" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I47" s="4"/>
     </row>
@@ -2559,46 +2563,46 @@
         <v>161</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F48" s="6"/>
       <c r="G48" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>162</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="6"/>
       <c r="G49" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I49" s="4"/>
     </row>
@@ -2607,46 +2611,46 @@
         <v>163</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F50" s="6"/>
       <c r="G50" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>164</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="6"/>
       <c r="G51" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I51" s="4"/>
     </row>
@@ -2655,46 +2659,46 @@
         <v>165</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F52" s="6"/>
       <c r="G52" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>166</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="6"/>
       <c r="G53" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I53" s="4"/>
     </row>
@@ -2703,46 +2707,46 @@
         <v>167</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>168</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="6"/>
       <c r="G55" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I55" s="4"/>
     </row>
@@ -2751,46 +2755,46 @@
         <v>169</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>170</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="6"/>
       <c r="G57" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I57" s="4"/>
     </row>
@@ -2799,46 +2803,46 @@
         <v>171</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>172</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="6"/>
       <c r="G59" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I59" s="4"/>
     </row>
@@ -2847,46 +2851,46 @@
         <v>173</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F60" s="6"/>
       <c r="G60" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>174</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="6"/>
       <c r="G61" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I61" s="4"/>
     </row>
@@ -2895,46 +2899,46 @@
         <v>175</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F62" s="6"/>
       <c r="G62" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>176</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="6"/>
       <c r="G63" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I63" s="4"/>
     </row>
@@ -2943,46 +2947,46 @@
         <v>177</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F64" s="6"/>
       <c r="G64" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>178</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="6"/>
       <c r="G65" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I65" s="4"/>
     </row>
@@ -2991,46 +2995,46 @@
         <v>179</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F66" s="6"/>
       <c r="G66" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>180</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="6"/>
       <c r="G67" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I67" s="4"/>
     </row>
@@ -3039,46 +3043,46 @@
         <v>181</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F68" s="6"/>
       <c r="G68" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>182</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="6"/>
       <c r="G69" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I69" s="4"/>
     </row>
@@ -3087,46 +3091,46 @@
         <v>183</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F70" s="6"/>
       <c r="G70" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>184</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="6"/>
       <c r="G71" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I71" s="4"/>
     </row>
@@ -3135,46 +3139,46 @@
         <v>185</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>186</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="6"/>
       <c r="G73" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I73" s="4"/>
     </row>
@@ -3183,46 +3187,46 @@
         <v>187</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F74" s="6"/>
       <c r="G74" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>188</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="6"/>
       <c r="G75" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I75" s="4"/>
     </row>
@@ -3231,46 +3235,46 @@
         <v>189</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F76" s="6"/>
       <c r="G76" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>190</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="6"/>
       <c r="G77" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I77" s="4"/>
     </row>
@@ -3279,46 +3283,46 @@
         <v>191</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F78" s="6"/>
       <c r="G78" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>192</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="6"/>
       <c r="G79" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I79" s="4"/>
     </row>
@@ -3327,46 +3331,46 @@
         <v>193</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>194</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="6"/>
       <c r="G81" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I81" s="4"/>
     </row>
@@ -3375,46 +3379,46 @@
         <v>195</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>196</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="6"/>
       <c r="G83" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I83" s="4"/>
     </row>
@@ -3423,46 +3427,46 @@
         <v>197</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F84" s="6"/>
       <c r="G84" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>198</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="6"/>
       <c r="G85" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I85" s="4"/>
     </row>
@@ -3471,46 +3475,46 @@
         <v>199</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F86" s="6"/>
       <c r="G86" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>200</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="6"/>
       <c r="G87" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I87" s="4"/>
     </row>
@@ -3519,46 +3523,46 @@
         <v>201</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F88" s="6"/>
       <c r="G88" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>202</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="6"/>
       <c r="G89" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I89" s="4"/>
     </row>
@@ -3567,46 +3571,46 @@
         <v>203</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F90" s="6"/>
       <c r="G90" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>204</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="6"/>
       <c r="G91" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I91" s="4"/>
     </row>
@@ -3615,46 +3619,46 @@
         <v>205</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F92" s="6"/>
       <c r="G92" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>206</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="6"/>
       <c r="G93" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I93" s="4"/>
     </row>
@@ -3663,46 +3667,46 @@
         <v>207</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F94" s="6"/>
       <c r="G94" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>208</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="6"/>
       <c r="G95" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I95" s="4"/>
     </row>
@@ -3711,46 +3715,46 @@
         <v>209</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F96" s="6"/>
       <c r="G96" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>210</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="6"/>
       <c r="G97" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I97" s="4"/>
     </row>
@@ -3759,46 +3763,46 @@
         <v>211</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F98" s="6"/>
       <c r="G98" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>212</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="6"/>
       <c r="G99" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I99" s="4"/>
     </row>
@@ -3807,46 +3811,46 @@
         <v>213</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F100" s="6"/>
       <c r="G100" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>214</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="6"/>
       <c r="G101" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I101" s="4"/>
     </row>
@@ -3855,46 +3859,46 @@
         <v>215</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F102" s="6"/>
       <c r="G102" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>216</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="6"/>
       <c r="G103" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I103" s="4"/>
     </row>
@@ -3903,46 +3907,46 @@
         <v>217</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F104" s="6"/>
       <c r="G104" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I104" s="4"/>
     </row>
-    <row r="105" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>218</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E105" s="12"/>
       <c r="F105" s="6"/>
       <c r="G105" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I105" s="4"/>
     </row>
@@ -3951,46 +3955,46 @@
         <v>219</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F106" s="6"/>
       <c r="G106" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I106" s="4"/>
     </row>
-    <row r="107" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>220</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E107" s="12"/>
       <c r="F107" s="6"/>
       <c r="G107" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I107" s="4"/>
     </row>
@@ -3999,46 +4003,46 @@
         <v>221</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>222</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="6"/>
       <c r="G109" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I109" s="4"/>
     </row>
@@ -4047,94 +4051,94 @@
         <v>223</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>224</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="6"/>
       <c r="G111" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I111" s="4"/>
     </row>
-    <row r="112" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>225</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F112" s="6"/>
       <c r="G112" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I112" s="4"/>
     </row>
-    <row r="113" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>226</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="6"/>
       <c r="G113" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I113" s="4"/>
     </row>
@@ -4143,46 +4147,46 @@
         <v>227</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>228</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="6"/>
       <c r="G115" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I115" s="4"/>
     </row>
@@ -4191,46 +4195,46 @@
         <v>229</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="1:9" ht="28" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>230</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="6"/>
       <c r="G117" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I117" s="4"/>
     </row>
@@ -4239,23 +4243,23 @@
         <v>231</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I118" s="4"/>
     </row>
@@ -4264,28 +4268,29 @@
         <v>232</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F119" s="6"/>
       <c r="G119" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="I119" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/data/input/一级测试用例-17001.xlsx
+++ b/tests/data/input/一级测试用例-17001.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B11B4EB-266F-4618-A077-9A8219260A13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="246">
   <si>
     <t>用例编号</t>
   </si>
@@ -884,9 +890,6 @@
     <t>net_final_score</t>
   </si>
   <si>
-    <t>net_final_score=34</t>
-  </si>
-  <si>
     <t>net_final_score=</t>
   </si>
   <si>
@@ -929,18 +932,21 @@
 info_fraud_verification_item.item_name[1]='3个月内申请人身份证作为联份证出现的次数大于等于2';
 info_fraud_verification_item.item_name[2]='3个月内申请人身份证作为联系证出现的次数大于等于3'</t>
   </si>
+  <si>
+    <t>net_final_score=34</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>info_fraud_verification.id;
+info_fraud_verification.final_score=34</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -952,154 +958,26 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1108,198 +986,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1335,255 +1027,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1623,62 +1073,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1936,31 +1348,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A98" sqref="$A98:$XFD98"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.5416666666667" customWidth="1"/>
-    <col min="4" max="4" width="28.2666666666667" customWidth="1"/>
-    <col min="5" max="5" width="45.2666666666667" customWidth="1"/>
-    <col min="6" max="6" width="25.0916666666667" customWidth="1"/>
-    <col min="7" max="7" width="58.45" customWidth="1"/>
+    <col min="1" max="2" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" customWidth="1"/>
+    <col min="5" max="5" width="45.26953125" customWidth="1"/>
+    <col min="6" max="6" width="25.08984375" customWidth="1"/>
+    <col min="7" max="7" width="58.453125" customWidth="1"/>
     <col min="8" max="8" width="35" customWidth="1"/>
-    <col min="9" max="9" width="30.725" customWidth="1"/>
-    <col min="10" max="10" width="32.2666666666667" customWidth="1"/>
+    <col min="9" max="9" width="30.7265625" customWidth="1"/>
+    <col min="10" max="10" width="32.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1992,7 +1404,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>115</v>
       </c>
@@ -2017,7 +1429,7 @@
       </c>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>116</v>
       </c>
@@ -2040,7 +1452,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>117</v>
       </c>
@@ -2065,7 +1477,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>118</v>
       </c>
@@ -2088,7 +1500,7 @@
       </c>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>119</v>
       </c>
@@ -2113,7 +1525,7 @@
       </c>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>120</v>
       </c>
@@ -2136,7 +1548,7 @@
       </c>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>121</v>
       </c>
@@ -2161,7 +1573,7 @@
       </c>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>122</v>
       </c>
@@ -2184,7 +1596,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>123</v>
       </c>
@@ -2209,7 +1621,7 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>124</v>
       </c>
@@ -2232,7 +1644,7 @@
       </c>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>125</v>
       </c>
@@ -2257,7 +1669,7 @@
       </c>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>126</v>
       </c>
@@ -2280,7 +1692,7 @@
       </c>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>127</v>
       </c>
@@ -2305,7 +1717,7 @@
       </c>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>128</v>
       </c>
@@ -2328,7 +1740,7 @@
       </c>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>129</v>
       </c>
@@ -2353,7 +1765,7 @@
       </c>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>130</v>
       </c>
@@ -2376,7 +1788,7 @@
       </c>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>131</v>
       </c>
@@ -2401,7 +1813,7 @@
       </c>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>132</v>
       </c>
@@ -2424,7 +1836,7 @@
       </c>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>133</v>
       </c>
@@ -2449,7 +1861,7 @@
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>134</v>
       </c>
@@ -2472,7 +1884,7 @@
       </c>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>135</v>
       </c>
@@ -2497,7 +1909,7 @@
       </c>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>136</v>
       </c>
@@ -2520,7 +1932,7 @@
       </c>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>137</v>
       </c>
@@ -2545,7 +1957,7 @@
       </c>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>138</v>
       </c>
@@ -2568,7 +1980,7 @@
       </c>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>139</v>
       </c>
@@ -2593,7 +2005,7 @@
       </c>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>140</v>
       </c>
@@ -2616,7 +2028,7 @@
       </c>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>141</v>
       </c>
@@ -2641,7 +2053,7 @@
       </c>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>142</v>
       </c>
@@ -2664,7 +2076,7 @@
       </c>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>143</v>
       </c>
@@ -2689,7 +2101,7 @@
       </c>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>144</v>
       </c>
@@ -2712,7 +2124,7 @@
       </c>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>145</v>
       </c>
@@ -2737,7 +2149,7 @@
       </c>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>146</v>
       </c>
@@ -2760,7 +2172,7 @@
       </c>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>147</v>
       </c>
@@ -2785,7 +2197,7 @@
       </c>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>148</v>
       </c>
@@ -2808,7 +2220,7 @@
       </c>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>149</v>
       </c>
@@ -2833,7 +2245,7 @@
       </c>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>150</v>
       </c>
@@ -2856,7 +2268,7 @@
       </c>
       <c r="I37" s="12"/>
     </row>
-    <row r="38" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>151</v>
       </c>
@@ -2881,7 +2293,7 @@
       </c>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>152</v>
       </c>
@@ -2904,7 +2316,7 @@
       </c>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>153</v>
       </c>
@@ -2929,7 +2341,7 @@
       </c>
       <c r="I40" s="12"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="41" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>154</v>
       </c>
@@ -2952,7 +2364,7 @@
       </c>
       <c r="I41" s="12"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="42" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>155</v>
       </c>
@@ -2977,7 +2389,7 @@
       </c>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>156</v>
       </c>
@@ -3000,7 +2412,7 @@
       </c>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>157</v>
       </c>
@@ -3025,7 +2437,7 @@
       </c>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="45" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>158</v>
       </c>
@@ -3048,7 +2460,7 @@
       </c>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="81" spans="1:9">
+    <row r="46" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>159</v>
       </c>
@@ -3073,7 +2485,7 @@
       </c>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="47" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>160</v>
       </c>
@@ -3096,7 +2508,7 @@
       </c>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" s="1" customFormat="1" ht="162" spans="1:9">
+    <row r="48" spans="1:9" s="1" customFormat="1" ht="168" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>161</v>
       </c>
@@ -3121,7 +2533,7 @@
       </c>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="49" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>162</v>
       </c>
@@ -3144,7 +2556,7 @@
       </c>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="162" spans="1:9">
+    <row r="50" spans="1:9" s="1" customFormat="1" ht="168" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>163</v>
       </c>
@@ -3169,7 +2581,7 @@
       </c>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="51" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>164</v>
       </c>
@@ -3192,7 +2604,7 @@
       </c>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="162" spans="1:9">
+    <row r="52" spans="1:9" s="1" customFormat="1" ht="168" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>165</v>
       </c>
@@ -3217,7 +2629,7 @@
       </c>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="40.5" spans="1:9">
+    <row r="53" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>166</v>
       </c>
@@ -3240,7 +2652,7 @@
       </c>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" ht="162" spans="1:9">
+    <row r="54" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>167</v>
       </c>
@@ -3265,7 +2677,7 @@
       </c>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" ht="40.5" spans="1:9">
+    <row r="55" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>168</v>
       </c>
@@ -3288,7 +2700,7 @@
       </c>
       <c r="I55" s="12"/>
     </row>
-    <row r="56" ht="148.5" spans="1:9">
+    <row r="56" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>169</v>
       </c>
@@ -3313,7 +2725,7 @@
       </c>
       <c r="I56" s="12"/>
     </row>
-    <row r="57" ht="40.5" spans="1:9">
+    <row r="57" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>170</v>
       </c>
@@ -3336,7 +2748,7 @@
       </c>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" ht="162" spans="1:9">
+    <row r="58" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>171</v>
       </c>
@@ -3361,7 +2773,7 @@
       </c>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" ht="40.5" spans="1:9">
+    <row r="59" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>172</v>
       </c>
@@ -3384,7 +2796,7 @@
       </c>
       <c r="I59" s="12"/>
     </row>
-    <row r="60" ht="162" spans="1:9">
+    <row r="60" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>173</v>
       </c>
@@ -3409,7 +2821,7 @@
       </c>
       <c r="I60" s="12"/>
     </row>
-    <row r="61" ht="40.5" spans="1:9">
+    <row r="61" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>174</v>
       </c>
@@ -3432,7 +2844,7 @@
       </c>
       <c r="I61" s="12"/>
     </row>
-    <row r="62" ht="162" spans="1:9">
+    <row r="62" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>175</v>
       </c>
@@ -3457,7 +2869,7 @@
       </c>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" ht="40.5" spans="1:9">
+    <row r="63" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>176</v>
       </c>
@@ -3480,7 +2892,7 @@
       </c>
       <c r="I63" s="12"/>
     </row>
-    <row r="64" ht="162" spans="1:9">
+    <row r="64" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>177</v>
       </c>
@@ -3505,7 +2917,7 @@
       </c>
       <c r="I64" s="12"/>
     </row>
-    <row r="65" ht="40.5" spans="1:9">
+    <row r="65" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>178</v>
       </c>
@@ -3528,7 +2940,7 @@
       </c>
       <c r="I65" s="12"/>
     </row>
-    <row r="66" ht="162" spans="1:9">
+    <row r="66" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>179</v>
       </c>
@@ -3553,7 +2965,7 @@
       </c>
       <c r="I66" s="12"/>
     </row>
-    <row r="67" ht="40.5" spans="1:9">
+    <row r="67" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>180</v>
       </c>
@@ -3576,7 +2988,7 @@
       </c>
       <c r="I67" s="12"/>
     </row>
-    <row r="68" ht="162" spans="1:9">
+    <row r="68" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>181</v>
       </c>
@@ -3601,7 +3013,7 @@
       </c>
       <c r="I68" s="12"/>
     </row>
-    <row r="69" ht="40.5" spans="1:9">
+    <row r="69" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>182</v>
       </c>
@@ -3624,7 +3036,7 @@
       </c>
       <c r="I69" s="12"/>
     </row>
-    <row r="70" ht="162" spans="1:9">
+    <row r="70" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>183</v>
       </c>
@@ -3649,7 +3061,7 @@
       </c>
       <c r="I70" s="12"/>
     </row>
-    <row r="71" ht="40.5" spans="1:9">
+    <row r="71" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>184</v>
       </c>
@@ -3672,7 +3084,7 @@
       </c>
       <c r="I71" s="12"/>
     </row>
-    <row r="72" ht="162" spans="1:9">
+    <row r="72" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>185</v>
       </c>
@@ -3697,7 +3109,7 @@
       </c>
       <c r="I72" s="12"/>
     </row>
-    <row r="73" ht="40.5" spans="1:9">
+    <row r="73" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>186</v>
       </c>
@@ -3720,7 +3132,7 @@
       </c>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" ht="162" spans="1:9">
+    <row r="74" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>187</v>
       </c>
@@ -3745,7 +3157,7 @@
       </c>
       <c r="I74" s="12"/>
     </row>
-    <row r="75" ht="40.5" spans="1:9">
+    <row r="75" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>188</v>
       </c>
@@ -3768,7 +3180,7 @@
       </c>
       <c r="I75" s="12"/>
     </row>
-    <row r="76" ht="162" spans="1:9">
+    <row r="76" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>189</v>
       </c>
@@ -3793,7 +3205,7 @@
       </c>
       <c r="I76" s="12"/>
     </row>
-    <row r="77" ht="40.5" spans="1:9">
+    <row r="77" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>190</v>
       </c>
@@ -3816,7 +3228,7 @@
       </c>
       <c r="I77" s="12"/>
     </row>
-    <row r="78" ht="162" spans="1:9">
+    <row r="78" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>191</v>
       </c>
@@ -3841,7 +3253,7 @@
       </c>
       <c r="I78" s="12"/>
     </row>
-    <row r="79" ht="40.5" spans="1:9">
+    <row r="79" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>192</v>
       </c>
@@ -3864,7 +3276,7 @@
       </c>
       <c r="I79" s="12"/>
     </row>
-    <row r="80" ht="162" spans="1:9">
+    <row r="80" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>193</v>
       </c>
@@ -3889,7 +3301,7 @@
       </c>
       <c r="I80" s="12"/>
     </row>
-    <row r="81" ht="40.5" spans="1:9">
+    <row r="81" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>194</v>
       </c>
@@ -3912,7 +3324,7 @@
       </c>
       <c r="I81" s="12"/>
     </row>
-    <row r="82" ht="162" spans="1:9">
+    <row r="82" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>195</v>
       </c>
@@ -3937,7 +3349,7 @@
       </c>
       <c r="I82" s="12"/>
     </row>
-    <row r="83" ht="40.5" spans="1:9">
+    <row r="83" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>196</v>
       </c>
@@ -3960,7 +3372,7 @@
       </c>
       <c r="I83" s="12"/>
     </row>
-    <row r="84" ht="162" spans="1:9">
+    <row r="84" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>197</v>
       </c>
@@ -3985,7 +3397,7 @@
       </c>
       <c r="I84" s="12"/>
     </row>
-    <row r="85" ht="40.5" spans="1:9">
+    <row r="85" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>198</v>
       </c>
@@ -4008,7 +3420,7 @@
       </c>
       <c r="I85" s="12"/>
     </row>
-    <row r="86" ht="162" spans="1:9">
+    <row r="86" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>199</v>
       </c>
@@ -4033,7 +3445,7 @@
       </c>
       <c r="I86" s="12"/>
     </row>
-    <row r="87" ht="40.5" spans="1:9">
+    <row r="87" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>200</v>
       </c>
@@ -4056,7 +3468,7 @@
       </c>
       <c r="I87" s="12"/>
     </row>
-    <row r="88" ht="162" spans="1:9">
+    <row r="88" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>201</v>
       </c>
@@ -4081,7 +3493,7 @@
       </c>
       <c r="I88" s="12"/>
     </row>
-    <row r="89" ht="40.5" spans="1:9">
+    <row r="89" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>202</v>
       </c>
@@ -4104,7 +3516,7 @@
       </c>
       <c r="I89" s="12"/>
     </row>
-    <row r="90" ht="162" spans="1:9">
+    <row r="90" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>203</v>
       </c>
@@ -4129,7 +3541,7 @@
       </c>
       <c r="I90" s="12"/>
     </row>
-    <row r="91" ht="40.5" spans="1:9">
+    <row r="91" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>204</v>
       </c>
@@ -4152,7 +3564,7 @@
       </c>
       <c r="I91" s="12"/>
     </row>
-    <row r="92" ht="162" spans="1:9">
+    <row r="92" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>205</v>
       </c>
@@ -4177,7 +3589,7 @@
       </c>
       <c r="I92" s="12"/>
     </row>
-    <row r="93" ht="40.5" spans="1:9">
+    <row r="93" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>206</v>
       </c>
@@ -4200,7 +3612,7 @@
       </c>
       <c r="I93" s="12"/>
     </row>
-    <row r="94" ht="162" spans="1:9">
+    <row r="94" spans="1:9" ht="168" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>207</v>
       </c>
@@ -4225,7 +3637,7 @@
       </c>
       <c r="I94" s="12"/>
     </row>
-    <row r="95" ht="40.5" spans="1:9">
+    <row r="95" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>208</v>
       </c>
@@ -4248,7 +3660,7 @@
       </c>
       <c r="I95" s="12"/>
     </row>
-    <row r="96" ht="283.5" spans="1:9">
+    <row r="96" spans="1:9" ht="280" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>209</v>
       </c>
@@ -4273,7 +3685,7 @@
       </c>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" ht="40.5" spans="1:9">
+    <row r="97" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>210</v>
       </c>
@@ -4296,7 +3708,7 @@
       </c>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" ht="283.5" spans="1:9">
+    <row r="98" spans="1:9" ht="280" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>211</v>
       </c>
@@ -4321,7 +3733,7 @@
       </c>
       <c r="I98" s="12"/>
     </row>
-    <row r="99" ht="40.5" spans="1:9">
+    <row r="99" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>212</v>
       </c>
@@ -4344,7 +3756,7 @@
       </c>
       <c r="I99" s="12"/>
     </row>
-    <row r="100" ht="283.5" spans="1:9">
+    <row r="100" spans="1:9" ht="280" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>213</v>
       </c>
@@ -4369,7 +3781,7 @@
       </c>
       <c r="I100" s="12"/>
     </row>
-    <row r="101" ht="40.5" spans="1:9">
+    <row r="101" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>214</v>
       </c>
@@ -4392,7 +3804,7 @@
       </c>
       <c r="I101" s="12"/>
     </row>
-    <row r="102" ht="283.5" spans="1:9">
+    <row r="102" spans="1:9" ht="280" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>215</v>
       </c>
@@ -4417,7 +3829,7 @@
       </c>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" ht="40.5" spans="1:9">
+    <row r="103" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>216</v>
       </c>
@@ -4440,7 +3852,7 @@
       </c>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" ht="283.5" spans="1:9">
+    <row r="104" spans="1:9" ht="280" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>217</v>
       </c>
@@ -4465,7 +3877,7 @@
       </c>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" ht="40.5" spans="1:9">
+    <row r="105" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>218</v>
       </c>
@@ -4488,7 +3900,7 @@
       </c>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" ht="81" spans="1:9">
+    <row r="106" spans="1:9" ht="84" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>219</v>
       </c>
@@ -4513,7 +3925,7 @@
       </c>
       <c r="I106" s="12"/>
     </row>
-    <row r="107" ht="40.5" spans="1:9">
+    <row r="107" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>220</v>
       </c>
@@ -4536,7 +3948,7 @@
       </c>
       <c r="I107" s="12"/>
     </row>
-    <row r="108" ht="94.5" spans="1:9">
+    <row r="108" spans="1:9" ht="98" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>221</v>
       </c>
@@ -4561,7 +3973,7 @@
       </c>
       <c r="I108" s="12"/>
     </row>
-    <row r="109" ht="40.5" spans="1:9">
+    <row r="109" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>222</v>
       </c>
@@ -4584,7 +3996,7 @@
       </c>
       <c r="I109" s="12"/>
     </row>
-    <row r="110" ht="81" spans="1:9">
+    <row r="110" spans="1:9" ht="84" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>223</v>
       </c>
@@ -4609,7 +4021,7 @@
       </c>
       <c r="I110" s="12"/>
     </row>
-    <row r="111" ht="40.5" spans="1:9">
+    <row r="111" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>224</v>
       </c>
@@ -4632,7 +4044,7 @@
       </c>
       <c r="I111" s="12"/>
     </row>
-    <row r="112" ht="40.5" spans="1:9">
+    <row r="112" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>225</v>
       </c>
@@ -4642,20 +4054,20 @@
       <c r="C112" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>12</v>
+      <c r="D112" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="8"/>
-      <c r="G112" s="6" t="s">
-        <v>233</v>
+      <c r="G112" s="14" t="s">
+        <v>244</v>
       </c>
       <c r="H112" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I112" s="12"/>
     </row>
-    <row r="113" ht="40.5" spans="1:9">
+    <row r="113" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>226</v>
       </c>
@@ -4671,14 +4083,14 @@
       <c r="E113" s="7"/>
       <c r="F113" s="8"/>
       <c r="G113" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H113" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I113" s="12"/>
     </row>
-    <row r="114" ht="148.5" spans="1:9">
+    <row r="114" spans="1:9" ht="154" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>227</v>
       </c>
@@ -4686,24 +4098,24 @@
         <v>10</v>
       </c>
       <c r="C114" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="D114" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="F114" s="8"/>
       <c r="G114" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H114" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I114" s="12"/>
     </row>
-    <row r="115" ht="40.5" spans="1:9">
+    <row r="115" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>228</v>
       </c>
@@ -4711,7 +4123,7 @@
         <v>10</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D115" s="7" t="s">
         <v>12</v>
@@ -4719,14 +4131,14 @@
       <c r="E115" s="7"/>
       <c r="F115" s="8"/>
       <c r="G115" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H115" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I115" s="12"/>
     </row>
-    <row r="116" ht="108" spans="1:9">
+    <row r="116" spans="1:9" ht="112" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>229</v>
       </c>
@@ -4734,24 +4146,24 @@
         <v>10</v>
       </c>
       <c r="C116" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E116" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="F116" s="8"/>
       <c r="G116" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H116" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I116" s="12"/>
     </row>
-    <row r="117" ht="40.5" spans="1:9">
+    <row r="117" spans="1:9" ht="42" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>230</v>
       </c>
@@ -4759,7 +4171,7 @@
         <v>10</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D117" s="7" t="s">
         <v>12</v>
@@ -4767,14 +4179,14 @@
       <c r="E117" s="7"/>
       <c r="F117" s="8"/>
       <c r="G117" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H117" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I117" s="12"/>
     </row>
-    <row r="118" ht="81" spans="1:9">
+    <row r="118" spans="1:9" ht="98" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>231</v>
       </c>
@@ -4782,24 +4194,24 @@
         <v>10</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F118" s="8"/>
       <c r="G118" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H118" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I118" s="12"/>
     </row>
-    <row r="119" ht="148.5" spans="1:9">
+    <row r="119" spans="1:9" ht="154" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>232</v>
       </c>
@@ -4807,17 +4219,17 @@
         <v>10</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D119" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F119" s="8"/>
       <c r="G119" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H119" s="9" t="s">
         <v>15</v>
@@ -4825,8 +4237,8 @@
       <c r="I119" s="12"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/tests/data/input/一级测试用例-17001.xlsx
+++ b/tests/data/input/一级测试用例-17001.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Magfin\python\pipes\tests\data\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pipes\tests\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B11B4EB-266F-4618-A077-9A8219260A13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -945,7 +944,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1353,26 +1352,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="28.26953125" customWidth="1"/>
-    <col min="5" max="5" width="45.26953125" customWidth="1"/>
-    <col min="6" max="6" width="25.08984375" customWidth="1"/>
-    <col min="7" max="7" width="58.453125" customWidth="1"/>
+    <col min="1" max="2" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="5" max="5" width="45.25" customWidth="1"/>
+    <col min="6" max="6" width="25.125" customWidth="1"/>
+    <col min="7" max="7" width="58.5" customWidth="1"/>
     <col min="8" max="8" width="35" customWidth="1"/>
-    <col min="9" max="9" width="30.7265625" customWidth="1"/>
-    <col min="10" max="10" width="32.26953125" customWidth="1"/>
+    <col min="9" max="9" width="30.75" customWidth="1"/>
+    <col min="10" max="10" width="32.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>115</v>
       </c>
@@ -1429,7 +1428,7 @@
       </c>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>116</v>
       </c>
@@ -1452,7 +1451,7 @@
       </c>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>117</v>
       </c>
@@ -1477,7 +1476,7 @@
       </c>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>118</v>
       </c>
@@ -1500,7 +1499,7 @@
       </c>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>119</v>
       </c>
@@ -1525,7 +1524,7 @@
       </c>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>120</v>
       </c>
@@ -1548,7 +1547,7 @@
       </c>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>121</v>
       </c>
@@ -1573,7 +1572,7 @@
       </c>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>122</v>
       </c>
@@ -1596,7 +1595,7 @@
       </c>
       <c r="I9" s="12"/>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>123</v>
       </c>
@@ -1621,7 +1620,7 @@
       </c>
       <c r="I10" s="12"/>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>124</v>
       </c>
@@ -1644,7 +1643,7 @@
       </c>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>125</v>
       </c>
@@ -1669,7 +1668,7 @@
       </c>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>126</v>
       </c>
@@ -1692,7 +1691,7 @@
       </c>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>127</v>
       </c>
@@ -1717,7 +1716,7 @@
       </c>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>128</v>
       </c>
@@ -1740,7 +1739,7 @@
       </c>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>129</v>
       </c>
@@ -1765,7 +1764,7 @@
       </c>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>130</v>
       </c>
@@ -1788,7 +1787,7 @@
       </c>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
         <v>131</v>
       </c>
@@ -1813,7 +1812,7 @@
       </c>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
         <v>132</v>
       </c>
@@ -1836,7 +1835,7 @@
       </c>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>133</v>
       </c>
@@ -1861,7 +1860,7 @@
       </c>
       <c r="I20" s="12"/>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>134</v>
       </c>
@@ -1884,7 +1883,7 @@
       </c>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
         <v>135</v>
       </c>
@@ -1909,7 +1908,7 @@
       </c>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
         <v>136</v>
       </c>
@@ -1932,7 +1931,7 @@
       </c>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
         <v>137</v>
       </c>
@@ -1957,7 +1956,7 @@
       </c>
       <c r="I24" s="12"/>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
         <v>138</v>
       </c>
@@ -1980,7 +1979,7 @@
       </c>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
         <v>139</v>
       </c>
@@ -2005,7 +2004,7 @@
       </c>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
         <v>140</v>
       </c>
@@ -2028,7 +2027,7 @@
       </c>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
         <v>141</v>
       </c>
@@ -2053,7 +2052,7 @@
       </c>
       <c r="I28" s="12"/>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
         <v>142</v>
       </c>
@@ -2076,7 +2075,7 @@
       </c>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
         <v>143</v>
       </c>
@@ -2101,7 +2100,7 @@
       </c>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
         <v>144</v>
       </c>
@@ -2124,7 +2123,7 @@
       </c>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
         <v>145</v>
       </c>
@@ -2149,7 +2148,7 @@
       </c>
       <c r="I32" s="12"/>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>146</v>
       </c>
@@ -2172,7 +2171,7 @@
       </c>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
         <v>147</v>
       </c>
@@ -2197,7 +2196,7 @@
       </c>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
         <v>148</v>
       </c>
@@ -2220,7 +2219,7 @@
       </c>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
         <v>149</v>
       </c>
@@ -2245,7 +2244,7 @@
       </c>
       <c r="I36" s="12"/>
     </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
         <v>150</v>
       </c>
@@ -2268,7 +2267,7 @@
       </c>
       <c r="I37" s="12"/>
     </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
         <v>151</v>
       </c>
@@ -2293,7 +2292,7 @@
       </c>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
         <v>152</v>
       </c>
@@ -2316,7 +2315,7 @@
       </c>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
         <v>153</v>
       </c>
@@ -2341,7 +2340,7 @@
       </c>
       <c r="I40" s="12"/>
     </row>
-    <row r="41" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
         <v>154</v>
       </c>
@@ -2364,7 +2363,7 @@
       </c>
       <c r="I41" s="12"/>
     </row>
-    <row r="42" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
         <v>155</v>
       </c>
@@ -2389,7 +2388,7 @@
       </c>
       <c r="I42" s="12"/>
     </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>156</v>
       </c>
@@ -2412,7 +2411,7 @@
       </c>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
         <v>157</v>
       </c>
@@ -2437,7 +2436,7 @@
       </c>
       <c r="I44" s="12"/>
     </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
         <v>158</v>
       </c>
@@ -2460,7 +2459,7 @@
       </c>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="1:9" s="1" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" s="1" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A46" s="4">
         <v>159</v>
       </c>
@@ -2485,7 +2484,7 @@
       </c>
       <c r="I46" s="12"/>
     </row>
-    <row r="47" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A47" s="4">
         <v>160</v>
       </c>
@@ -2508,7 +2507,7 @@
       </c>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="1:9" s="1" customFormat="1" ht="168" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" s="1" customFormat="1" ht="162" x14ac:dyDescent="0.15">
       <c r="A48" s="4">
         <v>161</v>
       </c>
@@ -2533,7 +2532,7 @@
       </c>
       <c r="I48" s="12"/>
     </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A49" s="4">
         <v>162</v>
       </c>
@@ -2556,7 +2555,7 @@
       </c>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" ht="168" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" s="1" customFormat="1" ht="162" x14ac:dyDescent="0.15">
       <c r="A50" s="4">
         <v>163</v>
       </c>
@@ -2581,7 +2580,7 @@
       </c>
       <c r="I50" s="12"/>
     </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A51" s="4">
         <v>164</v>
       </c>
@@ -2604,7 +2603,7 @@
       </c>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" ht="168" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" s="1" customFormat="1" ht="162" x14ac:dyDescent="0.15">
       <c r="A52" s="4">
         <v>165</v>
       </c>
@@ -2629,7 +2628,7 @@
       </c>
       <c r="I52" s="12"/>
     </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A53" s="4">
         <v>166</v>
       </c>
@@ -2652,7 +2651,7 @@
       </c>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A54" s="4">
         <v>167</v>
       </c>
@@ -2677,7 +2676,7 @@
       </c>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A55" s="4">
         <v>168</v>
       </c>
@@ -2700,7 +2699,7 @@
       </c>
       <c r="I55" s="12"/>
     </row>
-    <row r="56" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A56" s="4">
         <v>169</v>
       </c>
@@ -2725,7 +2724,7 @@
       </c>
       <c r="I56" s="12"/>
     </row>
-    <row r="57" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A57" s="4">
         <v>170</v>
       </c>
@@ -2748,7 +2747,7 @@
       </c>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A58" s="4">
         <v>171</v>
       </c>
@@ -2773,7 +2772,7 @@
       </c>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A59" s="4">
         <v>172</v>
       </c>
@@ -2796,7 +2795,7 @@
       </c>
       <c r="I59" s="12"/>
     </row>
-    <row r="60" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A60" s="4">
         <v>173</v>
       </c>
@@ -2821,7 +2820,7 @@
       </c>
       <c r="I60" s="12"/>
     </row>
-    <row r="61" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A61" s="4">
         <v>174</v>
       </c>
@@ -2844,7 +2843,7 @@
       </c>
       <c r="I61" s="12"/>
     </row>
-    <row r="62" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A62" s="4">
         <v>175</v>
       </c>
@@ -2869,7 +2868,7 @@
       </c>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A63" s="4">
         <v>176</v>
       </c>
@@ -2892,7 +2891,7 @@
       </c>
       <c r="I63" s="12"/>
     </row>
-    <row r="64" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A64" s="4">
         <v>177</v>
       </c>
@@ -2917,7 +2916,7 @@
       </c>
       <c r="I64" s="12"/>
     </row>
-    <row r="65" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A65" s="4">
         <v>178</v>
       </c>
@@ -2940,7 +2939,7 @@
       </c>
       <c r="I65" s="12"/>
     </row>
-    <row r="66" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A66" s="4">
         <v>179</v>
       </c>
@@ -2965,7 +2964,7 @@
       </c>
       <c r="I66" s="12"/>
     </row>
-    <row r="67" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A67" s="4">
         <v>180</v>
       </c>
@@ -2988,7 +2987,7 @@
       </c>
       <c r="I67" s="12"/>
     </row>
-    <row r="68" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A68" s="4">
         <v>181</v>
       </c>
@@ -3013,7 +3012,7 @@
       </c>
       <c r="I68" s="12"/>
     </row>
-    <row r="69" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A69" s="4">
         <v>182</v>
       </c>
@@ -3036,7 +3035,7 @@
       </c>
       <c r="I69" s="12"/>
     </row>
-    <row r="70" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A70" s="4">
         <v>183</v>
       </c>
@@ -3061,7 +3060,7 @@
       </c>
       <c r="I70" s="12"/>
     </row>
-    <row r="71" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A71" s="4">
         <v>184</v>
       </c>
@@ -3084,7 +3083,7 @@
       </c>
       <c r="I71" s="12"/>
     </row>
-    <row r="72" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A72" s="4">
         <v>185</v>
       </c>
@@ -3109,7 +3108,7 @@
       </c>
       <c r="I72" s="12"/>
     </row>
-    <row r="73" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A73" s="4">
         <v>186</v>
       </c>
@@ -3132,7 +3131,7 @@
       </c>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A74" s="4">
         <v>187</v>
       </c>
@@ -3157,7 +3156,7 @@
       </c>
       <c r="I74" s="12"/>
     </row>
-    <row r="75" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A75" s="4">
         <v>188</v>
       </c>
@@ -3180,7 +3179,7 @@
       </c>
       <c r="I75" s="12"/>
     </row>
-    <row r="76" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A76" s="4">
         <v>189</v>
       </c>
@@ -3205,7 +3204,7 @@
       </c>
       <c r="I76" s="12"/>
     </row>
-    <row r="77" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A77" s="4">
         <v>190</v>
       </c>
@@ -3228,7 +3227,7 @@
       </c>
       <c r="I77" s="12"/>
     </row>
-    <row r="78" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A78" s="4">
         <v>191</v>
       </c>
@@ -3253,7 +3252,7 @@
       </c>
       <c r="I78" s="12"/>
     </row>
-    <row r="79" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A79" s="4">
         <v>192</v>
       </c>
@@ -3276,7 +3275,7 @@
       </c>
       <c r="I79" s="12"/>
     </row>
-    <row r="80" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A80" s="4">
         <v>193</v>
       </c>
@@ -3301,7 +3300,7 @@
       </c>
       <c r="I80" s="12"/>
     </row>
-    <row r="81" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A81" s="4">
         <v>194</v>
       </c>
@@ -3324,7 +3323,7 @@
       </c>
       <c r="I81" s="12"/>
     </row>
-    <row r="82" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A82" s="4">
         <v>195</v>
       </c>
@@ -3349,7 +3348,7 @@
       </c>
       <c r="I82" s="12"/>
     </row>
-    <row r="83" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A83" s="4">
         <v>196</v>
       </c>
@@ -3372,7 +3371,7 @@
       </c>
       <c r="I83" s="12"/>
     </row>
-    <row r="84" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A84" s="4">
         <v>197</v>
       </c>
@@ -3397,7 +3396,7 @@
       </c>
       <c r="I84" s="12"/>
     </row>
-    <row r="85" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A85" s="4">
         <v>198</v>
       </c>
@@ -3420,7 +3419,7 @@
       </c>
       <c r="I85" s="12"/>
     </row>
-    <row r="86" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A86" s="4">
         <v>199</v>
       </c>
@@ -3445,7 +3444,7 @@
       </c>
       <c r="I86" s="12"/>
     </row>
-    <row r="87" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A87" s="4">
         <v>200</v>
       </c>
@@ -3468,7 +3467,7 @@
       </c>
       <c r="I87" s="12"/>
     </row>
-    <row r="88" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A88" s="4">
         <v>201</v>
       </c>
@@ -3493,7 +3492,7 @@
       </c>
       <c r="I88" s="12"/>
     </row>
-    <row r="89" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A89" s="4">
         <v>202</v>
       </c>
@@ -3516,7 +3515,7 @@
       </c>
       <c r="I89" s="12"/>
     </row>
-    <row r="90" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A90" s="4">
         <v>203</v>
       </c>
@@ -3541,7 +3540,7 @@
       </c>
       <c r="I90" s="12"/>
     </row>
-    <row r="91" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A91" s="4">
         <v>204</v>
       </c>
@@ -3564,7 +3563,7 @@
       </c>
       <c r="I91" s="12"/>
     </row>
-    <row r="92" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A92" s="4">
         <v>205</v>
       </c>
@@ -3589,7 +3588,7 @@
       </c>
       <c r="I92" s="12"/>
     </row>
-    <row r="93" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A93" s="4">
         <v>206</v>
       </c>
@@ -3612,7 +3611,7 @@
       </c>
       <c r="I93" s="12"/>
     </row>
-    <row r="94" spans="1:9" ht="168" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="162" x14ac:dyDescent="0.15">
       <c r="A94" s="4">
         <v>207</v>
       </c>
@@ -3637,7 +3636,7 @@
       </c>
       <c r="I94" s="12"/>
     </row>
-    <row r="95" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A95" s="4">
         <v>208</v>
       </c>
@@ -3660,7 +3659,7 @@
       </c>
       <c r="I95" s="12"/>
     </row>
-    <row r="96" spans="1:9" ht="280" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="270" x14ac:dyDescent="0.15">
       <c r="A96" s="4">
         <v>209</v>
       </c>
@@ -3685,7 +3684,7 @@
       </c>
       <c r="I96" s="12"/>
     </row>
-    <row r="97" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A97" s="4">
         <v>210</v>
       </c>
@@ -3708,7 +3707,7 @@
       </c>
       <c r="I97" s="12"/>
     </row>
-    <row r="98" spans="1:9" ht="280" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="270" x14ac:dyDescent="0.15">
       <c r="A98" s="4">
         <v>211</v>
       </c>
@@ -3733,7 +3732,7 @@
       </c>
       <c r="I98" s="12"/>
     </row>
-    <row r="99" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A99" s="4">
         <v>212</v>
       </c>
@@ -3756,7 +3755,7 @@
       </c>
       <c r="I99" s="12"/>
     </row>
-    <row r="100" spans="1:9" ht="280" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="270" x14ac:dyDescent="0.15">
       <c r="A100" s="4">
         <v>213</v>
       </c>
@@ -3781,7 +3780,7 @@
       </c>
       <c r="I100" s="12"/>
     </row>
-    <row r="101" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A101" s="4">
         <v>214</v>
       </c>
@@ -3804,7 +3803,7 @@
       </c>
       <c r="I101" s="12"/>
     </row>
-    <row r="102" spans="1:9" ht="280" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="270" x14ac:dyDescent="0.15">
       <c r="A102" s="4">
         <v>215</v>
       </c>
@@ -3829,7 +3828,7 @@
       </c>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A103" s="4">
         <v>216</v>
       </c>
@@ -3852,7 +3851,7 @@
       </c>
       <c r="I103" s="12"/>
     </row>
-    <row r="104" spans="1:9" ht="280" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="270" x14ac:dyDescent="0.15">
       <c r="A104" s="4">
         <v>217</v>
       </c>
@@ -3877,7 +3876,7 @@
       </c>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A105" s="4">
         <v>218</v>
       </c>
@@ -3900,7 +3899,7 @@
       </c>
       <c r="I105" s="12"/>
     </row>
-    <row r="106" spans="1:9" ht="84" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A106" s="4">
         <v>219</v>
       </c>
@@ -3925,7 +3924,7 @@
       </c>
       <c r="I106" s="12"/>
     </row>
-    <row r="107" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A107" s="4">
         <v>220</v>
       </c>
@@ -3948,7 +3947,7 @@
       </c>
       <c r="I107" s="12"/>
     </row>
-    <row r="108" spans="1:9" ht="98" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A108" s="4">
         <v>221</v>
       </c>
@@ -3973,7 +3972,7 @@
       </c>
       <c r="I108" s="12"/>
     </row>
-    <row r="109" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A109" s="4">
         <v>222</v>
       </c>
@@ -3996,7 +3995,7 @@
       </c>
       <c r="I109" s="12"/>
     </row>
-    <row r="110" spans="1:9" ht="84" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A110" s="4">
         <v>223</v>
       </c>
@@ -4021,7 +4020,7 @@
       </c>
       <c r="I110" s="12"/>
     </row>
-    <row r="111" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A111" s="4">
         <v>224</v>
       </c>
@@ -4044,7 +4043,7 @@
       </c>
       <c r="I111" s="12"/>
     </row>
-    <row r="112" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A112" s="4">
         <v>225</v>
       </c>
@@ -4067,7 +4066,7 @@
       </c>
       <c r="I112" s="12"/>
     </row>
-    <row r="113" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A113" s="4">
         <v>226</v>
       </c>
@@ -4090,7 +4089,7 @@
       </c>
       <c r="I113" s="12"/>
     </row>
-    <row r="114" spans="1:9" ht="154" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A114" s="4">
         <v>227</v>
       </c>
@@ -4115,7 +4114,7 @@
       </c>
       <c r="I114" s="12"/>
     </row>
-    <row r="115" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A115" s="4">
         <v>228</v>
       </c>
@@ -4138,7 +4137,7 @@
       </c>
       <c r="I115" s="12"/>
     </row>
-    <row r="116" spans="1:9" ht="112" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A116" s="4">
         <v>229</v>
       </c>
@@ -4163,7 +4162,7 @@
       </c>
       <c r="I116" s="12"/>
     </row>
-    <row r="117" spans="1:9" ht="42" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A117" s="4">
         <v>230</v>
       </c>
@@ -4186,7 +4185,7 @@
       </c>
       <c r="I117" s="12"/>
     </row>
-    <row r="118" spans="1:9" ht="98" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="81" x14ac:dyDescent="0.15">
       <c r="A118" s="4">
         <v>231</v>
       </c>
@@ -4211,7 +4210,7 @@
       </c>
       <c r="I118" s="12"/>
     </row>
-    <row r="119" spans="1:9" ht="154" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A119" s="4">
         <v>232</v>
       </c>
